--- a/Final Project - STP shortlisted projects 2023.xlsx
+++ b/Final Project - STP shortlisted projects 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedric/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedric/Documents/finalproject/HEATSummerProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF98AB0D-51C4-9B4C-80D9-F3A21356E657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48ED98-0685-0244-BBBB-DED8802D4D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" xr2:uid="{E9B0D39E-3B21-4A98-A782-C458F8EC9459}"/>
   </bookViews>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -691,7 +689,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1296,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E12E90-DAB8-4B83-BB38-8A9A4B5F0F5A}">
   <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1865,39 +1863,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3800c6ac-308d-42ec-a023-89bc1e2c9701">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7b29cae2-69a1-4626-9b12-7bfd64fcd52d">
-      <UserInfo>
-        <DisplayName>Aisling O'Kane</DisplayName>
-        <AccountId>83</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Peter Bennett</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Peter Oliver</DisplayName>
-        <AccountId>19</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kira Clements</DisplayName>
-        <AccountId>81</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B64BBAFBF655C42B5FFD998550E45BB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58a6a8063b12378ae5b9452553c0ab8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3800c6ac-308d-42ec-a023-89bc1e2c9701" xmlns:ns3="7b29cae2-69a1-4626-9b12-7bfd64fcd52d" xmlns:ns4="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d66874e1e8af0194145b6d6975af00f0" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="3800c6ac-308d-42ec-a023-89bc1e2c9701"/>
@@ -2139,6 +2104,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3800c6ac-308d-42ec-a023-89bc1e2c9701">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7b29cae2-69a1-4626-9b12-7bfd64fcd52d">
+      <UserInfo>
+        <DisplayName>Aisling O'Kane</DisplayName>
+        <AccountId>83</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Peter Bennett</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Peter Oliver</DisplayName>
+        <AccountId>19</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kira Clements</DisplayName>
+        <AccountId>81</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431E5E24-FA12-4DAC-8BCF-2DEFD89A43FA}">
   <ds:schemaRefs>
@@ -2148,24 +2146,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{716006A7-A40D-4136-A206-781B9CCAEC4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3800c6ac-308d-42ec-a023-89bc1e2c9701"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
-    <ds:schemaRef ds:uri="7b29cae2-69a1-4626-9b12-7bfd64fcd52d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B721253-25D1-445A-8C27-6F04113AD771}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2183,4 +2163,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{716006A7-A40D-4136-A206-781B9CCAEC4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3800c6ac-308d-42ec-a023-89bc1e2c9701"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
+    <ds:schemaRef ds:uri="7b29cae2-69a1-4626-9b12-7bfd64fcd52d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>